--- a/DivinationApp/bin/Debug/ExplanationData/その他/十二大従星.xlsx
+++ b/DivinationApp/bin/Debug/ExplanationData/その他/十二大従星.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\sample\WinFormsApp2\bin\Debug\net5.0-windows\ExplanationData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\DivinationApp_pdf\DivinationApp\bin\Debug\ExplanationData\その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513474CE-FAFF-4825-AF5B-9549D700B47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EB8379-9241-4C17-98E8-D8E237BEA61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="1935" windowWidth="20220" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="360" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>天報星</t>
     <rPh sb="0" eb="3">
@@ -138,13 +138,34 @@
       <t>テンソウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストデータです。
+ああああああああああ
+あああああああああああｑｑｑｑｑｑｑｑｑ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストデータです。
+Aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストデータです。
+Bbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストデータです。
+Ccccccccccccccccccccccccccccccccccccccccccc</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,6 +183,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,12 +226,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -314,16 +344,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>298174</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>197321</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>43422</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3287450</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3186597</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1750310</xdr:rowOff>
+      <xdr:rowOff>1783928</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -346,7 +376,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1242391" y="3803726"/>
+          <a:off x="4679674" y="3819805"/>
           <a:ext cx="2989276" cy="1706888"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -358,16 +388,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>246087</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66793</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57978</xdr:rowOff>
+      <xdr:rowOff>136418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3328139</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1847010</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3148845</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>54068</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -390,7 +420,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4735261" y="57978"/>
+          <a:off x="8146234" y="136418"/>
           <a:ext cx="3082052" cy="1789032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -748,10 +778,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -759,67 +789,79 @@
     <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="53.140625" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" customWidth="1"/>
     <col min="5" max="5" width="38.85546875" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
